--- a/Assets/Game/Editor/XLS_Config/AssetDiskMapingFolder.xlsx
+++ b/Assets/Game/Editor/XLS_Config/AssetDiskMapingFolder.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>folderId</t>
   </si>
@@ -115,6 +115,12 @@
   </si>
   <si>
     <t>Assets/Game/AssetBundles/UIWindow/MessageBox</t>
+  </si>
+  <si>
+    <t>Assets/Game/XLuaScript/Level</t>
+  </si>
+  <si>
+    <t>Assets/Game/XLuaScript</t>
   </si>
 </sst>
 </file>
@@ -569,7 +575,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K19" sqref="K19"/>
@@ -868,6 +874,28 @@
         <v>9</v>
       </c>
     </row>
+    <row r="27">
+      <c r="A27" s="3">
+        <v>401643752</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="3">
+        <v>1387960939</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:XFD3">

--- a/Assets/Game/Editor/XLS_Config/AssetDiskMapingFolder.xlsx
+++ b/Assets/Game/Editor/XLS_Config/AssetDiskMapingFolder.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>folderId</t>
   </si>
@@ -118,9 +118,6 @@
   </si>
   <si>
     <t>Assets/Game/XLuaScript/Level</t>
-  </si>
-  <si>
-    <t>Assets/Game/XLuaScript</t>
   </si>
 </sst>
 </file>
@@ -575,7 +572,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K19" sqref="K19"/>
@@ -885,17 +882,6 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="3">
-        <v>1387960939</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:XFD3">

--- a/Assets/Game/Editor/XLS_Config/AssetDiskMapingFolder.xlsx
+++ b/Assets/Game/Editor/XLS_Config/AssetDiskMapingFolder.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>folderId</t>
   </si>
@@ -109,6 +109,9 @@
   </si>
   <si>
     <t>Assets/Game/AssetBundles/UIWindow/Guide</t>
+  </si>
+  <si>
+    <t>Assets/Game/AssetBundles/UIWindow/HeroList</t>
   </si>
   <si>
     <t>Assets/Game/AssetBundles/UIWindow/Lobby</t>
@@ -572,7 +575,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K19" sqref="K19"/>
@@ -851,18 +854,16 @@
     </row>
     <row r="25">
       <c r="A25" s="3">
-        <v>-1392412074</v>
+        <v>-1493566452</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="C25" s="3"/>
     </row>
     <row r="26">
       <c r="A26" s="3">
-        <v>-833208201</v>
+        <v>-1392412074</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>31</v>
@@ -873,12 +874,23 @@
     </row>
     <row r="27">
       <c r="A27" s="3">
-        <v>401643752</v>
+        <v>-833208201</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C27" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="3">
+        <v>401643752</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>9</v>
       </c>
     </row>

--- a/Assets/Game/Editor/XLS_Config/AssetDiskMapingFolder.xlsx
+++ b/Assets/Game/Editor/XLS_Config/AssetDiskMapingFolder.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>folderId</t>
   </si>
@@ -118,6 +118,9 @@
   </si>
   <si>
     <t>Assets/Game/AssetBundles/UIWindow/MessageBox</t>
+  </si>
+  <si>
+    <t>Assets/Game/AssetBundles/UIWindow/PlayerList</t>
   </si>
   <si>
     <t>Assets/Game/XLuaScript/Level</t>
@@ -575,7 +578,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K19" sqref="K19"/>
@@ -885,12 +888,21 @@
     </row>
     <row r="28">
       <c r="A28" s="3">
-        <v>401643752</v>
+        <v>-234066055</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="3"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="3">
+        <v>401643752</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>9</v>
       </c>
     </row>

--- a/Assets/Game/Editor/XLS_Config/AssetDiskMapingFolder.xlsx
+++ b/Assets/Game/Editor/XLS_Config/AssetDiskMapingFolder.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>folderId</t>
   </si>
@@ -124,6 +124,9 @@
   </si>
   <si>
     <t>Assets/Game/XLuaScript/Level</t>
+  </si>
+  <si>
+    <t>Assets/Game/XLuaScript/UIWindow/HeroListWindow</t>
   </si>
 </sst>
 </file>
@@ -578,7 +581,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K19" sqref="K19"/>
@@ -906,6 +909,15 @@
         <v>9</v>
       </c>
     </row>
+    <row r="30">
+      <c r="A30" s="3">
+        <v>-799817549</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="3"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:XFD3">

--- a/Assets/Game/Editor/XLS_Config/AssetDiskMapingFolder.xlsx
+++ b/Assets/Game/Editor/XLS_Config/AssetDiskMapingFolder.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>folderId</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>Assets/Game/AssetBundles/Prefabs/Normal</t>
+  </si>
+  <si>
+    <t>Assets/Game/AssetBundles/Prefabs/Skill/Hero_1002</t>
   </si>
   <si>
     <t>Assets/Game/AssetBundles/Scene</t>
@@ -581,7 +584,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K19" sqref="K19"/>
@@ -673,18 +676,16 @@
     </row>
     <row r="8">
       <c r="A8" s="3">
-        <v>-1643264599</v>
+        <v>15837866</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="C8" s="3"/>
     </row>
     <row r="9">
       <c r="A9" s="3">
-        <v>30704076</v>
+        <v>-1643264599</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>14</v>
@@ -695,7 +696,7 @@
     </row>
     <row r="10">
       <c r="A10" s="3">
-        <v>-1787621370</v>
+        <v>30704076</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>15</v>
@@ -706,7 +707,7 @@
     </row>
     <row r="11">
       <c r="A11" s="3">
-        <v>1634278514</v>
+        <v>-1787621370</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>16</v>
@@ -717,7 +718,7 @@
     </row>
     <row r="12">
       <c r="A12" s="3">
-        <v>1874317673</v>
+        <v>1634278514</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>17</v>
@@ -728,7 +729,7 @@
     </row>
     <row r="13">
       <c r="A13" s="3">
-        <v>641594185</v>
+        <v>1874317673</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>18</v>
@@ -739,7 +740,7 @@
     </row>
     <row r="14">
       <c r="A14" s="3">
-        <v>1697493859</v>
+        <v>641594185</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>19</v>
@@ -750,7 +751,7 @@
     </row>
     <row r="15">
       <c r="A15" s="3">
-        <v>292703195</v>
+        <v>1697493859</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>20</v>
@@ -761,7 +762,7 @@
     </row>
     <row r="16">
       <c r="A16" s="3">
-        <v>-682406693</v>
+        <v>292703195</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>21</v>
@@ -772,7 +773,7 @@
     </row>
     <row r="17">
       <c r="A17" s="3">
-        <v>-65542374</v>
+        <v>-682406693</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>22</v>
@@ -783,7 +784,7 @@
     </row>
     <row r="18">
       <c r="A18" s="3">
-        <v>482291274</v>
+        <v>-65542374</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>23</v>
@@ -794,7 +795,7 @@
     </row>
     <row r="19">
       <c r="A19" s="3">
-        <v>1557471277</v>
+        <v>482291274</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>24</v>
@@ -805,7 +806,7 @@
     </row>
     <row r="20">
       <c r="A20" s="3">
-        <v>502646517</v>
+        <v>1557471277</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>25</v>
@@ -816,7 +817,7 @@
     </row>
     <row r="21">
       <c r="A21" s="3">
-        <v>-1087550218</v>
+        <v>502646517</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>26</v>
@@ -827,7 +828,7 @@
     </row>
     <row r="22">
       <c r="A22" s="3">
-        <v>1508121002</v>
+        <v>-1087550218</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>27</v>
@@ -838,7 +839,7 @@
     </row>
     <row r="23">
       <c r="A23" s="3">
-        <v>498482096</v>
+        <v>1508121002</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>28</v>
@@ -849,7 +850,7 @@
     </row>
     <row r="24">
       <c r="A24" s="3">
-        <v>-2023891807</v>
+        <v>498482096</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>29</v>
@@ -860,27 +861,27 @@
     </row>
     <row r="25">
       <c r="A25" s="3">
-        <v>-1493566452</v>
+        <v>-2023891807</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="3"/>
+      <c r="C25" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="3">
-        <v>-1392412074</v>
+        <v>-1493566452</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="C26" s="3"/>
     </row>
     <row r="27">
       <c r="A27" s="3">
-        <v>-833208201</v>
+        <v>-1392412074</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>32</v>
@@ -891,32 +892,43 @@
     </row>
     <row r="28">
       <c r="A28" s="3">
-        <v>-234066055</v>
+        <v>-833208201</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="3"/>
+      <c r="C28" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="3">
-        <v>401643752</v>
+        <v>-234066055</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="C29" s="3"/>
     </row>
     <row r="30">
       <c r="A30" s="3">
-        <v>-799817549</v>
+        <v>401643752</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="3"/>
+      <c r="C30" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="3">
+        <v>-799817549</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/Game/Editor/XLS_Config/AssetDiskMapingFolder.xlsx
+++ b/Assets/Game/Editor/XLS_Config/AssetDiskMapingFolder.xlsx
@@ -45,91 +45,91 @@
     <t>外部资源路径</t>
   </si>
   <si>
-    <t>Assets/Game/AssetBundles/Fonts</t>
+    <t>Assets\Game\AssetBundles\Fonts</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>Assets/Game/AssetBundles/Materials</t>
-  </si>
-  <si>
-    <t>Assets/Game/AssetBundles/Prefabs/Character</t>
-  </si>
-  <si>
-    <t>Assets/Game/AssetBundles/Prefabs/Normal</t>
-  </si>
-  <si>
-    <t>Assets/Game/AssetBundles/Prefabs/Skill/Hero_1002</t>
-  </si>
-  <si>
-    <t>Assets/Game/AssetBundles/Scene</t>
-  </si>
-  <si>
-    <t>Assets/Game/AssetBundles/Sprite/Diaphragm</t>
-  </si>
-  <si>
-    <t>Assets/Game/AssetBundles/Sprite/Loading</t>
-  </si>
-  <si>
-    <t>Assets/Game/AssetBundles/Sprite/Lobby</t>
-  </si>
-  <si>
-    <t>Assets/Game/AssetBundles/Sprite/Login</t>
-  </si>
-  <si>
-    <t>Assets/Game/AssetBundles/SpriteAtlas/Battle</t>
-  </si>
-  <si>
-    <t>Assets/Game/AssetBundles/SpriteAtlas/CastingAperture</t>
-  </si>
-  <si>
-    <t>Assets/Game/AssetBundles/SpriteAtlas/HeroShow</t>
-  </si>
-  <si>
-    <t>Assets/Game/AssetBundles/SpriteAtlas/Loading</t>
-  </si>
-  <si>
-    <t>Assets/Game/AssetBundles/SpriteAtlas/Lobby</t>
-  </si>
-  <si>
-    <t>Assets/Game/AssetBundles/SpriteAtlas/Login</t>
-  </si>
-  <si>
-    <t>Assets/Game/AssetBundles/SpriteAtlas/Match</t>
-  </si>
-  <si>
-    <t>Assets/Game/AssetBundles/SpriteAtlas/Share</t>
-  </si>
-  <si>
-    <t>Assets/Game/AssetBundles/SpriteAtlas/Shop</t>
-  </si>
-  <si>
-    <t>Assets/Game/AssetBundles/SpriteAtlas/Skill</t>
-  </si>
-  <si>
-    <t>Assets/Game/AssetBundles/Terrain</t>
-  </si>
-  <si>
-    <t>Assets/Game/AssetBundles/UIWindow/Guide</t>
-  </si>
-  <si>
-    <t>Assets/Game/AssetBundles/UIWindow/HeroList</t>
-  </si>
-  <si>
-    <t>Assets/Game/AssetBundles/UIWindow/Lobby</t>
-  </si>
-  <si>
-    <t>Assets/Game/AssetBundles/UIWindow/MessageBox</t>
-  </si>
-  <si>
-    <t>Assets/Game/AssetBundles/UIWindow/PlayerList</t>
-  </si>
-  <si>
-    <t>Assets/Game/XLuaScript/Level</t>
-  </si>
-  <si>
-    <t>Assets/Game/XLuaScript/UIWindow/HeroListWindow</t>
+    <t>Assets\Game\AssetBundles\Materials</t>
+  </si>
+  <si>
+    <t>Assets\Game\AssetBundles\Prefabs\Character</t>
+  </si>
+  <si>
+    <t>Assets\Game\AssetBundles\Prefabs\Normal</t>
+  </si>
+  <si>
+    <t>Assets\Game\AssetBundles\Prefabs\Skill\Hero_1002</t>
+  </si>
+  <si>
+    <t>Assets\Game\AssetBundles\Scene</t>
+  </si>
+  <si>
+    <t>Assets\Game\AssetBundles\Sprite\Diaphragm</t>
+  </si>
+  <si>
+    <t>Assets\Game\AssetBundles\Sprite\Loading</t>
+  </si>
+  <si>
+    <t>Assets\Game\AssetBundles\Sprite\Lobby</t>
+  </si>
+  <si>
+    <t>Assets\Game\AssetBundles\Sprite\Login</t>
+  </si>
+  <si>
+    <t>Assets\Game\AssetBundles\SpriteAtlas\Battle</t>
+  </si>
+  <si>
+    <t>Assets\Game\AssetBundles\SpriteAtlas\CastingAperture</t>
+  </si>
+  <si>
+    <t>Assets\Game\AssetBundles\SpriteAtlas\HeroShow</t>
+  </si>
+  <si>
+    <t>Assets\Game\AssetBundles\SpriteAtlas\Loading</t>
+  </si>
+  <si>
+    <t>Assets\Game\AssetBundles\SpriteAtlas\Lobby</t>
+  </si>
+  <si>
+    <t>Assets\Game\AssetBundles\SpriteAtlas\Login</t>
+  </si>
+  <si>
+    <t>Assets\Game\AssetBundles\SpriteAtlas\Match</t>
+  </si>
+  <si>
+    <t>Assets\Game\AssetBundles\SpriteAtlas\Share</t>
+  </si>
+  <si>
+    <t>Assets\Game\AssetBundles\SpriteAtlas\Shop</t>
+  </si>
+  <si>
+    <t>Assets\Game\AssetBundles\SpriteAtlas\Skill</t>
+  </si>
+  <si>
+    <t>Assets\Game\AssetBundles\Terrain</t>
+  </si>
+  <si>
+    <t>Assets\Game\AssetBundles\UIWindow\Guide</t>
+  </si>
+  <si>
+    <t>Assets\Game\AssetBundles\UIWindow\HeroList</t>
+  </si>
+  <si>
+    <t>Assets\Game\AssetBundles\UIWindow\Lobby</t>
+  </si>
+  <si>
+    <t>Assets\Game\AssetBundles\UIWindow\MessageBox</t>
+  </si>
+  <si>
+    <t>Assets\Game\AssetBundles\UIWindow\PlayerList</t>
+  </si>
+  <si>
+    <t>Assets\Game\XLuaScript\Level</t>
+  </si>
+  <si>
+    <t>Assets\Game\XLuaScript\UIWindow\HeroListWindow</t>
   </si>
 </sst>
 </file>
@@ -632,7 +632,7 @@
     </row>
     <row r="4">
       <c r="A4" s="3">
-        <v>-1252442483</v>
+        <v>-881440639</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>8</v>
@@ -643,7 +643,7 @@
     </row>
     <row r="5">
       <c r="A5" s="3">
-        <v>-976912153</v>
+        <v>2130076485</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>10</v>
@@ -654,7 +654,7 @@
     </row>
     <row r="6">
       <c r="A6" s="3">
-        <v>-322493923</v>
+        <v>-1043817097</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>11</v>
@@ -665,7 +665,7 @@
     </row>
     <row r="7">
       <c r="A7" s="3">
-        <v>1017328225</v>
+        <v>1653159199</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>12</v>
@@ -676,7 +676,7 @@
     </row>
     <row r="8">
       <c r="A8" s="3">
-        <v>15837866</v>
+        <v>1405887086</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>13</v>
@@ -685,7 +685,7 @@
     </row>
     <row r="9">
       <c r="A9" s="3">
-        <v>-1643264599</v>
+        <v>1586115149</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>14</v>
@@ -696,7 +696,7 @@
     </row>
     <row r="10">
       <c r="A10" s="3">
-        <v>30704076</v>
+        <v>1802024784</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>15</v>
@@ -707,7 +707,7 @@
     </row>
     <row r="11">
       <c r="A11" s="3">
-        <v>-1787621370</v>
+        <v>1374850816</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>16</v>
@@ -718,7 +718,7 @@
     </row>
     <row r="12">
       <c r="A12" s="3">
-        <v>1634278514</v>
+        <v>-850393118</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>17</v>
@@ -729,7 +729,7 @@
     </row>
     <row r="13">
       <c r="A13" s="3">
-        <v>1874317673</v>
+        <v>-355104449</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>18</v>
@@ -740,7 +740,7 @@
     </row>
     <row r="14">
       <c r="A14" s="3">
-        <v>641594185</v>
+        <v>1704757777</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>19</v>
@@ -751,7 +751,7 @@
     </row>
     <row r="15">
       <c r="A15" s="3">
-        <v>1697493859</v>
+        <v>1377990655</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>20</v>
@@ -762,7 +762,7 @@
     </row>
     <row r="16">
       <c r="A16" s="3">
-        <v>292703195</v>
+        <v>1544790827</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>21</v>
@@ -773,7 +773,7 @@
     </row>
     <row r="17">
       <c r="A17" s="3">
-        <v>-682406693</v>
+        <v>-2060301521</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>22</v>
@@ -784,7 +784,7 @@
     </row>
     <row r="18">
       <c r="A18" s="3">
-        <v>-65542374</v>
+        <v>-1125565370</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>23</v>
@@ -795,7 +795,7 @@
     </row>
     <row r="19">
       <c r="A19" s="3">
-        <v>482291274</v>
+        <v>2132414154</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>24</v>
@@ -806,7 +806,7 @@
     </row>
     <row r="20">
       <c r="A20" s="3">
-        <v>1557471277</v>
+        <v>-122344907</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>25</v>
@@ -817,7 +817,7 @@
     </row>
     <row r="21">
       <c r="A21" s="3">
-        <v>502646517</v>
+        <v>-1653651395</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>26</v>
@@ -828,7 +828,7 @@
     </row>
     <row r="22">
       <c r="A22" s="3">
-        <v>-1087550218</v>
+        <v>-968073910</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>27</v>
@@ -839,7 +839,7 @@
     </row>
     <row r="23">
       <c r="A23" s="3">
-        <v>1508121002</v>
+        <v>603336498</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>28</v>
@@ -850,7 +850,7 @@
     </row>
     <row r="24">
       <c r="A24" s="3">
-        <v>498482096</v>
+        <v>-1059248364</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>29</v>
@@ -861,7 +861,7 @@
     </row>
     <row r="25">
       <c r="A25" s="3">
-        <v>-2023891807</v>
+        <v>1096960845</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>30</v>
@@ -872,7 +872,7 @@
     </row>
     <row r="26">
       <c r="A26" s="3">
-        <v>-1493566452</v>
+        <v>-1254891170</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>31</v>
@@ -881,7 +881,7 @@
     </row>
     <row r="27">
       <c r="A27" s="3">
-        <v>-1392412074</v>
+        <v>-466514230</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>32</v>
@@ -892,7 +892,7 @@
     </row>
     <row r="28">
       <c r="A28" s="3">
-        <v>-833208201</v>
+        <v>1748860649</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>33</v>
@@ -903,7 +903,7 @@
     </row>
     <row r="29">
       <c r="A29" s="3">
-        <v>-234066055</v>
+        <v>-1646712389</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>34</v>
@@ -912,7 +912,7 @@
     </row>
     <row r="30">
       <c r="A30" s="3">
-        <v>401643752</v>
+        <v>24384822</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>35</v>
@@ -923,7 +923,7 @@
     </row>
     <row r="31">
       <c r="A31" s="3">
-        <v>-799817549</v>
+        <v>1213201749</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>36</v>

--- a/Assets/Game/Editor/XLS_Config/AssetDiskMapingFolder.xlsx
+++ b/Assets/Game/Editor/XLS_Config/AssetDiskMapingFolder.xlsx
@@ -45,72 +45,12 @@
     <t>外部资源路径</t>
   </si>
   <si>
-    <t>Assets\Game\AssetBundles\Fonts</t>
+    <t>Assets\Game\AssetBundles\Materials</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>Assets\Game\AssetBundles\Materials</t>
-  </si>
-  <si>
-    <t>Assets\Game\AssetBundles\Prefabs\Character</t>
-  </si>
-  <si>
-    <t>Assets\Game\AssetBundles\Prefabs\Normal</t>
-  </si>
-  <si>
-    <t>Assets\Game\AssetBundles\Prefabs\Skill\Hero_1002</t>
-  </si>
-  <si>
-    <t>Assets\Game\AssetBundles\Scene</t>
-  </si>
-  <si>
-    <t>Assets\Game\AssetBundles\Sprite\Diaphragm</t>
-  </si>
-  <si>
-    <t>Assets\Game\AssetBundles\Sprite\Loading</t>
-  </si>
-  <si>
-    <t>Assets\Game\AssetBundles\Sprite\Lobby</t>
-  </si>
-  <si>
-    <t>Assets\Game\AssetBundles\Sprite\Login</t>
-  </si>
-  <si>
-    <t>Assets\Game\AssetBundles\SpriteAtlas\Battle</t>
-  </si>
-  <si>
-    <t>Assets\Game\AssetBundles\SpriteAtlas\CastingAperture</t>
-  </si>
-  <si>
-    <t>Assets\Game\AssetBundles\SpriteAtlas\HeroShow</t>
-  </si>
-  <si>
-    <t>Assets\Game\AssetBundles\SpriteAtlas\Loading</t>
-  </si>
-  <si>
-    <t>Assets\Game\AssetBundles\SpriteAtlas\Lobby</t>
-  </si>
-  <si>
-    <t>Assets\Game\AssetBundles\SpriteAtlas\Login</t>
-  </si>
-  <si>
-    <t>Assets\Game\AssetBundles\SpriteAtlas\Match</t>
-  </si>
-  <si>
-    <t>Assets\Game\AssetBundles\SpriteAtlas\Share</t>
-  </si>
-  <si>
-    <t>Assets\Game\AssetBundles\SpriteAtlas\Shop</t>
-  </si>
-  <si>
-    <t>Assets\Game\AssetBundles\SpriteAtlas\Skill</t>
-  </si>
-  <si>
-    <t>Assets\Game\AssetBundles\Terrain</t>
-  </si>
-  <si>
     <t>Assets\Game\AssetBundles\UIWindow\Guide</t>
   </si>
   <si>
@@ -126,10 +66,70 @@
     <t>Assets\Game\AssetBundles\UIWindow\PlayerList</t>
   </si>
   <si>
-    <t>Assets\Game\XLuaScript\Level</t>
-  </si>
-  <si>
-    <t>Assets\Game\XLuaScript\UIWindow\HeroListWindow</t>
+    <t>Assets\Example\AssetBundles\Fonts</t>
+  </si>
+  <si>
+    <t>Assets\Example\AssetBundles\Prefabs\Character</t>
+  </si>
+  <si>
+    <t>Assets\Example\AssetBundles\Prefabs\Normal</t>
+  </si>
+  <si>
+    <t>Assets\Example\AssetBundles\Prefabs\Skill\Hero_1002</t>
+  </si>
+  <si>
+    <t>Assets\Example\AssetBundles\Scene</t>
+  </si>
+  <si>
+    <t>Assets\Example\AssetBundles\Sprite\Diaphragm</t>
+  </si>
+  <si>
+    <t>Assets\Example\AssetBundles\Sprite\Loading</t>
+  </si>
+  <si>
+    <t>Assets\Example\AssetBundles\Sprite\Lobby</t>
+  </si>
+  <si>
+    <t>Assets\Example\AssetBundles\Sprite\Login</t>
+  </si>
+  <si>
+    <t>Assets\Example\AssetBundles\SpriteAtlas\Battle</t>
+  </si>
+  <si>
+    <t>Assets\Example\AssetBundles\SpriteAtlas\CastingAperture</t>
+  </si>
+  <si>
+    <t>Assets\Example\AssetBundles\SpriteAtlas\HeroShow</t>
+  </si>
+  <si>
+    <t>Assets\Example\AssetBundles\SpriteAtlas\Loading</t>
+  </si>
+  <si>
+    <t>Assets\Example\AssetBundles\SpriteAtlas\Lobby</t>
+  </si>
+  <si>
+    <t>Assets\Example\AssetBundles\SpriteAtlas\Login</t>
+  </si>
+  <si>
+    <t>Assets\Example\AssetBundles\SpriteAtlas\Match</t>
+  </si>
+  <si>
+    <t>Assets\Example\AssetBundles\SpriteAtlas\Share</t>
+  </si>
+  <si>
+    <t>Assets\Example\AssetBundles\SpriteAtlas\Shop</t>
+  </si>
+  <si>
+    <t>Assets\Example\AssetBundles\SpriteAtlas\Skill</t>
+  </si>
+  <si>
+    <t>Assets\Example\AssetBundles\Terrain</t>
+  </si>
+  <si>
+    <t>Assets\Example\XLuaScript\Level</t>
+  </si>
+  <si>
+    <t>Assets\Example\XLuaScript\UIWindow\HeroListWindow</t>
   </si>
 </sst>
 </file>
@@ -632,7 +632,7 @@
     </row>
     <row r="4">
       <c r="A4" s="3">
-        <v>-881440639</v>
+        <v>2130076485</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>8</v>
@@ -643,7 +643,7 @@
     </row>
     <row r="5">
       <c r="A5" s="3">
-        <v>2130076485</v>
+        <v>1096960845</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>10</v>
@@ -654,7 +654,7 @@
     </row>
     <row r="6">
       <c r="A6" s="3">
-        <v>-1043817097</v>
+        <v>-1254891170</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>11</v>
@@ -665,7 +665,7 @@
     </row>
     <row r="7">
       <c r="A7" s="3">
-        <v>1653159199</v>
+        <v>-466514230</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>12</v>
@@ -676,16 +676,18 @@
     </row>
     <row r="8">
       <c r="A8" s="3">
-        <v>1405887086</v>
+        <v>1748860649</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="3"/>
+      <c r="C8" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="3">
-        <v>1586115149</v>
+        <v>-1646712389</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>14</v>
@@ -696,7 +698,7 @@
     </row>
     <row r="10">
       <c r="A10" s="3">
-        <v>1802024784</v>
+        <v>703074975</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>15</v>
@@ -707,7 +709,7 @@
     </row>
     <row r="11">
       <c r="A11" s="3">
-        <v>1374850816</v>
+        <v>-2004506147</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>16</v>
@@ -718,7 +720,7 @@
     </row>
     <row r="12">
       <c r="A12" s="3">
-        <v>-850393118</v>
+        <v>1536776472</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>17</v>
@@ -729,7 +731,7 @@
     </row>
     <row r="13">
       <c r="A13" s="3">
-        <v>-355104449</v>
+        <v>-1919546133</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>18</v>
@@ -740,7 +742,7 @@
     </row>
     <row r="14">
       <c r="A14" s="3">
-        <v>1704757777</v>
+        <v>1325637814</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>19</v>
@@ -751,7 +753,7 @@
     </row>
     <row r="15">
       <c r="A15" s="3">
-        <v>1377990655</v>
+        <v>-1405308702</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>20</v>
@@ -762,7 +764,7 @@
     </row>
     <row r="16">
       <c r="A16" s="3">
-        <v>1544790827</v>
+        <v>-1408754900</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>21</v>
@@ -773,7 +775,7 @@
     </row>
     <row r="17">
       <c r="A17" s="3">
-        <v>-2060301521</v>
+        <v>1311652878</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>22</v>
@@ -784,7 +786,7 @@
     </row>
     <row r="18">
       <c r="A18" s="3">
-        <v>-1125565370</v>
+        <v>853849619</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>23</v>
@@ -795,7 +797,7 @@
     </row>
     <row r="19">
       <c r="A19" s="3">
-        <v>2132414154</v>
+        <v>1498651392</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>24</v>
@@ -806,7 +808,7 @@
     </row>
     <row r="20">
       <c r="A20" s="3">
-        <v>-122344907</v>
+        <v>-143016780</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>25</v>
@@ -817,7 +819,7 @@
     </row>
     <row r="21">
       <c r="A21" s="3">
-        <v>-1653651395</v>
+        <v>697093135</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>26</v>
@@ -828,7 +830,7 @@
     </row>
     <row r="22">
       <c r="A22" s="3">
-        <v>-968073910</v>
+        <v>-1099268540</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>27</v>
@@ -839,7 +841,7 @@
     </row>
     <row r="23">
       <c r="A23" s="3">
-        <v>603336498</v>
+        <v>-1080227996</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>28</v>
@@ -850,7 +852,7 @@
     </row>
     <row r="24">
       <c r="A24" s="3">
-        <v>-1059248364</v>
+        <v>1006479116</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>29</v>
@@ -861,7 +863,7 @@
     </row>
     <row r="25">
       <c r="A25" s="3">
-        <v>1096960845</v>
+        <v>851451727</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>30</v>
@@ -872,16 +874,18 @@
     </row>
     <row r="26">
       <c r="A26" s="3">
-        <v>-1254891170</v>
+        <v>303790042</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="3"/>
+      <c r="C26" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="3">
-        <v>-466514230</v>
+        <v>779000644</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>32</v>
@@ -892,7 +896,7 @@
     </row>
     <row r="28">
       <c r="A28" s="3">
-        <v>1748860649</v>
+        <v>1205799434</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>33</v>
@@ -903,16 +907,18 @@
     </row>
     <row r="29">
       <c r="A29" s="3">
-        <v>-1646712389</v>
+        <v>1993197872</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="3"/>
+      <c r="C29" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="3">
-        <v>24384822</v>
+        <v>2118059982</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>35</v>
@@ -923,12 +929,14 @@
     </row>
     <row r="31">
       <c r="A31" s="3">
-        <v>1213201749</v>
+        <v>1723212885</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="3"/>
+      <c r="C31" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/Game/Editor/XLS_Config/AssetDiskMapingFolder.xlsx
+++ b/Assets/Game/Editor/XLS_Config/AssetDiskMapingFolder.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>folderId</t>
   </si>
@@ -51,19 +51,7 @@
     <t/>
   </si>
   <si>
-    <t>Assets\Game\AssetBundles\UIWindow\Guide</t>
-  </si>
-  <si>
-    <t>Assets\Game\AssetBundles\UIWindow\HeroList</t>
-  </si>
-  <si>
-    <t>Assets\Game\AssetBundles\UIWindow\Lobby</t>
-  </si>
-  <si>
-    <t>Assets\Game\AssetBundles\UIWindow\MessageBox</t>
-  </si>
-  <si>
-    <t>Assets\Game\AssetBundles\UIWindow\PlayerList</t>
+    <t>Assets\Game\XLuaScript</t>
   </si>
   <si>
     <t>Assets\Example\AssetBundles\Fonts</t>
@@ -126,10 +114,25 @@
     <t>Assets\Example\AssetBundles\Terrain</t>
   </si>
   <si>
+    <t>Assets\Example\AssetBundles\UIWindow\ExampleGuide</t>
+  </si>
+  <si>
+    <t>Assets\Example\AssetBundles\UIWindow\ExampleHeroList</t>
+  </si>
+  <si>
+    <t>Assets\Example\AssetBundles\UIWindow\ExampleLobby</t>
+  </si>
+  <si>
+    <t>Assets\Example\AssetBundles\UIWindow\ExampleMessageBox</t>
+  </si>
+  <si>
+    <t>Assets\Example\AssetBundles\UIWindow\ExamplePlayerList</t>
+  </si>
+  <si>
     <t>Assets\Example\XLuaScript\Level</t>
   </si>
   <si>
-    <t>Assets\Example\XLuaScript\UIWindow\HeroListWindow</t>
+    <t>Assets\Example\XLuaScript\UIWindow\ExampleHeroListWindow</t>
   </si>
 </sst>
 </file>
@@ -584,7 +587,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K19" sqref="K19"/>
@@ -643,18 +646,16 @@
     </row>
     <row r="5">
       <c r="A5" s="3">
-        <v>1096960845</v>
+        <v>-764457537</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="C5" s="3"/>
     </row>
     <row r="6">
       <c r="A6" s="3">
-        <v>-1254891170</v>
+        <v>703074975</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>11</v>
@@ -665,7 +666,7 @@
     </row>
     <row r="7">
       <c r="A7" s="3">
-        <v>-466514230</v>
+        <v>-2004506147</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>12</v>
@@ -676,7 +677,7 @@
     </row>
     <row r="8">
       <c r="A8" s="3">
-        <v>1748860649</v>
+        <v>1536776472</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>13</v>
@@ -687,7 +688,7 @@
     </row>
     <row r="9">
       <c r="A9" s="3">
-        <v>-1646712389</v>
+        <v>-1919546133</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>14</v>
@@ -698,7 +699,7 @@
     </row>
     <row r="10">
       <c r="A10" s="3">
-        <v>703074975</v>
+        <v>1325637814</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>15</v>
@@ -709,7 +710,7 @@
     </row>
     <row r="11">
       <c r="A11" s="3">
-        <v>-2004506147</v>
+        <v>-1405308702</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>16</v>
@@ -720,7 +721,7 @@
     </row>
     <row r="12">
       <c r="A12" s="3">
-        <v>1536776472</v>
+        <v>-1408754900</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>17</v>
@@ -731,7 +732,7 @@
     </row>
     <row r="13">
       <c r="A13" s="3">
-        <v>-1919546133</v>
+        <v>1311652878</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>18</v>
@@ -742,7 +743,7 @@
     </row>
     <row r="14">
       <c r="A14" s="3">
-        <v>1325637814</v>
+        <v>853849619</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>19</v>
@@ -753,7 +754,7 @@
     </row>
     <row r="15">
       <c r="A15" s="3">
-        <v>-1405308702</v>
+        <v>1498651392</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>20</v>
@@ -764,7 +765,7 @@
     </row>
     <row r="16">
       <c r="A16" s="3">
-        <v>-1408754900</v>
+        <v>-143016780</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>21</v>
@@ -775,7 +776,7 @@
     </row>
     <row r="17">
       <c r="A17" s="3">
-        <v>1311652878</v>
+        <v>697093135</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>22</v>
@@ -786,7 +787,7 @@
     </row>
     <row r="18">
       <c r="A18" s="3">
-        <v>853849619</v>
+        <v>-1099268540</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>23</v>
@@ -797,7 +798,7 @@
     </row>
     <row r="19">
       <c r="A19" s="3">
-        <v>1498651392</v>
+        <v>-1080227996</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>24</v>
@@ -808,7 +809,7 @@
     </row>
     <row r="20">
       <c r="A20" s="3">
-        <v>-143016780</v>
+        <v>1006479116</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>25</v>
@@ -819,7 +820,7 @@
     </row>
     <row r="21">
       <c r="A21" s="3">
-        <v>697093135</v>
+        <v>851451727</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>26</v>
@@ -830,7 +831,7 @@
     </row>
     <row r="22">
       <c r="A22" s="3">
-        <v>-1099268540</v>
+        <v>303790042</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>27</v>
@@ -841,7 +842,7 @@
     </row>
     <row r="23">
       <c r="A23" s="3">
-        <v>-1080227996</v>
+        <v>779000644</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>28</v>
@@ -852,7 +853,7 @@
     </row>
     <row r="24">
       <c r="A24" s="3">
-        <v>1006479116</v>
+        <v>1205799434</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>29</v>
@@ -863,7 +864,7 @@
     </row>
     <row r="25">
       <c r="A25" s="3">
-        <v>851451727</v>
+        <v>1993197872</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>30</v>
@@ -874,7 +875,7 @@
     </row>
     <row r="26">
       <c r="A26" s="3">
-        <v>303790042</v>
+        <v>1553275941</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>31</v>
@@ -885,7 +886,7 @@
     </row>
     <row r="27">
       <c r="A27" s="3">
-        <v>779000644</v>
+        <v>417181438</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>32</v>
@@ -896,7 +897,7 @@
     </row>
     <row r="28">
       <c r="A28" s="3">
-        <v>1205799434</v>
+        <v>-1422368536</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>33</v>
@@ -907,7 +908,7 @@
     </row>
     <row r="29">
       <c r="A29" s="3">
-        <v>1993197872</v>
+        <v>-41951286</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>34</v>
@@ -918,7 +919,7 @@
     </row>
     <row r="30">
       <c r="A30" s="3">
-        <v>2118059982</v>
+        <v>498502262</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>35</v>
@@ -929,12 +930,23 @@
     </row>
     <row r="31">
       <c r="A31" s="3">
-        <v>1723212885</v>
+        <v>2118059982</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C31" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="3">
+        <v>-1278219496</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>9</v>
       </c>
     </row>

--- a/Assets/Game/Editor/XLS_Config/AssetDiskMapingFolder.xlsx
+++ b/Assets/Game/Editor/XLS_Config/AssetDiskMapingFolder.xlsx
@@ -651,7 +651,9 @@
       <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="3">

--- a/Assets/Game/Editor/XLS_Config/AssetDiskMapingFolder.xlsx
+++ b/Assets/Game/Editor/XLS_Config/AssetDiskMapingFolder.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>folderId</t>
   </si>
@@ -51,6 +51,12 @@
     <t/>
   </si>
   <si>
+    <t>Assets\Game\AssetBundles\SpriteAtlas</t>
+  </si>
+  <si>
+    <t>Assets\Game\AssetBundles\UIWindow</t>
+  </si>
+  <si>
     <t>Assets\Game\XLuaScript</t>
   </si>
   <si>
@@ -112,6 +118,9 @@
   </si>
   <si>
     <t>Assets\Example\AssetBundles\Terrain</t>
+  </si>
+  <si>
+    <t>Assets\Example\AssetBundles\Timeline</t>
   </si>
   <si>
     <t>Assets\Example\AssetBundles\UIWindow\ExampleGuide</t>
@@ -587,7 +596,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K19" sqref="K19"/>
@@ -646,29 +655,25 @@
     </row>
     <row r="5">
       <c r="A5" s="3">
-        <v>-764457537</v>
+        <v>1148303718</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="C5" s="3"/>
     </row>
     <row r="6">
       <c r="A6" s="3">
-        <v>703074975</v>
+        <v>798963579</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="C6" s="3"/>
     </row>
     <row r="7">
       <c r="A7" s="3">
-        <v>-2004506147</v>
+        <v>-764457537</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>12</v>
@@ -679,7 +684,7 @@
     </row>
     <row r="8">
       <c r="A8" s="3">
-        <v>1536776472</v>
+        <v>703074975</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>13</v>
@@ -690,7 +695,7 @@
     </row>
     <row r="9">
       <c r="A9" s="3">
-        <v>-1919546133</v>
+        <v>-2004506147</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>14</v>
@@ -701,7 +706,7 @@
     </row>
     <row r="10">
       <c r="A10" s="3">
-        <v>1325637814</v>
+        <v>1536776472</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>15</v>
@@ -712,7 +717,7 @@
     </row>
     <row r="11">
       <c r="A11" s="3">
-        <v>-1405308702</v>
+        <v>-1919546133</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>16</v>
@@ -723,7 +728,7 @@
     </row>
     <row r="12">
       <c r="A12" s="3">
-        <v>-1408754900</v>
+        <v>1325637814</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>17</v>
@@ -734,7 +739,7 @@
     </row>
     <row r="13">
       <c r="A13" s="3">
-        <v>1311652878</v>
+        <v>-1405308702</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>18</v>
@@ -745,7 +750,7 @@
     </row>
     <row r="14">
       <c r="A14" s="3">
-        <v>853849619</v>
+        <v>-1408754900</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>19</v>
@@ -756,7 +761,7 @@
     </row>
     <row r="15">
       <c r="A15" s="3">
-        <v>1498651392</v>
+        <v>1311652878</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>20</v>
@@ -767,7 +772,7 @@
     </row>
     <row r="16">
       <c r="A16" s="3">
-        <v>-143016780</v>
+        <v>853849619</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>21</v>
@@ -778,7 +783,7 @@
     </row>
     <row r="17">
       <c r="A17" s="3">
-        <v>697093135</v>
+        <v>1498651392</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>22</v>
@@ -789,7 +794,7 @@
     </row>
     <row r="18">
       <c r="A18" s="3">
-        <v>-1099268540</v>
+        <v>-143016780</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>23</v>
@@ -800,7 +805,7 @@
     </row>
     <row r="19">
       <c r="A19" s="3">
-        <v>-1080227996</v>
+        <v>697093135</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>24</v>
@@ -811,7 +816,7 @@
     </row>
     <row r="20">
       <c r="A20" s="3">
-        <v>1006479116</v>
+        <v>-1099268540</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>25</v>
@@ -822,7 +827,7 @@
     </row>
     <row r="21">
       <c r="A21" s="3">
-        <v>851451727</v>
+        <v>-1080227996</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>26</v>
@@ -833,7 +838,7 @@
     </row>
     <row r="22">
       <c r="A22" s="3">
-        <v>303790042</v>
+        <v>1006479116</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>27</v>
@@ -844,7 +849,7 @@
     </row>
     <row r="23">
       <c r="A23" s="3">
-        <v>779000644</v>
+        <v>851451727</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>28</v>
@@ -855,7 +860,7 @@
     </row>
     <row r="24">
       <c r="A24" s="3">
-        <v>1205799434</v>
+        <v>303790042</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>29</v>
@@ -866,7 +871,7 @@
     </row>
     <row r="25">
       <c r="A25" s="3">
-        <v>1993197872</v>
+        <v>779000644</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>30</v>
@@ -877,7 +882,7 @@
     </row>
     <row r="26">
       <c r="A26" s="3">
-        <v>1553275941</v>
+        <v>1205799434</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>31</v>
@@ -888,7 +893,7 @@
     </row>
     <row r="27">
       <c r="A27" s="3">
-        <v>417181438</v>
+        <v>1993197872</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>32</v>
@@ -899,18 +904,16 @@
     </row>
     <row r="28">
       <c r="A28" s="3">
-        <v>-1422368536</v>
+        <v>1753185237</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="C28" s="3"/>
     </row>
     <row r="29">
       <c r="A29" s="3">
-        <v>-41951286</v>
+        <v>1553275941</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>34</v>
@@ -921,7 +924,7 @@
     </row>
     <row r="30">
       <c r="A30" s="3">
-        <v>498502262</v>
+        <v>417181438</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>35</v>
@@ -932,7 +935,7 @@
     </row>
     <row r="31">
       <c r="A31" s="3">
-        <v>2118059982</v>
+        <v>-1422368536</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>36</v>
@@ -943,12 +946,45 @@
     </row>
     <row r="32">
       <c r="A32" s="3">
-        <v>-1278219496</v>
+        <v>-41951286</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C32" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="3">
+        <v>498502262</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="3">
+        <v>2118059982</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="3">
+        <v>-1278219496</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>9</v>
       </c>
     </row>

--- a/Assets/Game/Editor/XLS_Config/AssetDiskMapingFolder.xlsx
+++ b/Assets/Game/Editor/XLS_Config/AssetDiskMapingFolder.xlsx
@@ -660,7 +660,9 @@
       <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="3">
@@ -669,7 +671,9 @@
       <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="3"/>
+      <c r="C6" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="3">
@@ -909,7 +913,9 @@
       <c r="B28" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="3"/>
+      <c r="C28" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="3">

--- a/Assets/Game/Editor/XLS_Config/AssetDiskMapingFolder.xlsx
+++ b/Assets/Game/Editor/XLS_Config/AssetDiskMapingFolder.xlsx
@@ -644,7 +644,7 @@
     </row>
     <row r="4">
       <c r="A4" s="3">
-        <v>2130076485</v>
+        <v>911802018</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>8</v>
@@ -655,7 +655,7 @@
     </row>
     <row r="5">
       <c r="A5" s="3">
-        <v>1148303718</v>
+        <v>-869938189</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>10</v>
@@ -666,7 +666,7 @@
     </row>
     <row r="6">
       <c r="A6" s="3">
-        <v>798963579</v>
+        <v>-1829266007</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>11</v>
@@ -677,7 +677,7 @@
     </row>
     <row r="7">
       <c r="A7" s="3">
-        <v>-764457537</v>
+        <v>-1872478931</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>12</v>
@@ -688,7 +688,7 @@
     </row>
     <row r="8">
       <c r="A8" s="3">
-        <v>703074975</v>
+        <v>-2129202802</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>13</v>
@@ -699,7 +699,7 @@
     </row>
     <row r="9">
       <c r="A9" s="3">
-        <v>-2004506147</v>
+        <v>-528577065</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>14</v>
@@ -710,7 +710,7 @@
     </row>
     <row r="10">
       <c r="A10" s="3">
-        <v>1536776472</v>
+        <v>-1480342890</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>15</v>
@@ -721,7 +721,7 @@
     </row>
     <row r="11">
       <c r="A11" s="3">
-        <v>-1919546133</v>
+        <v>-1403317264</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>16</v>
@@ -732,7 +732,7 @@
     </row>
     <row r="12">
       <c r="A12" s="3">
-        <v>1325637814</v>
+        <v>2045359390</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>17</v>
@@ -743,7 +743,7 @@
     </row>
     <row r="13">
       <c r="A13" s="3">
-        <v>-1405308702</v>
+        <v>-1137916888</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>18</v>
@@ -754,7 +754,7 @@
     </row>
     <row r="14">
       <c r="A14" s="3">
-        <v>-1408754900</v>
+        <v>-1180586041</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>19</v>
@@ -765,7 +765,7 @@
     </row>
     <row r="15">
       <c r="A15" s="3">
-        <v>1311652878</v>
+        <v>-508042415</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>20</v>
@@ -776,7 +776,7 @@
     </row>
     <row r="16">
       <c r="A16" s="3">
-        <v>853849619</v>
+        <v>-487912482</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>21</v>
@@ -787,7 +787,7 @@
     </row>
     <row r="17">
       <c r="A17" s="3">
-        <v>1498651392</v>
+        <v>-810737161</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>22</v>
@@ -798,7 +798,7 @@
     </row>
     <row r="18">
       <c r="A18" s="3">
-        <v>-143016780</v>
+        <v>-2026926156</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>23</v>
@@ -809,7 +809,7 @@
     </row>
     <row r="19">
       <c r="A19" s="3">
-        <v>697093135</v>
+        <v>-1444934881</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>24</v>
@@ -820,7 +820,7 @@
     </row>
     <row r="20">
       <c r="A20" s="3">
-        <v>-1099268540</v>
+        <v>-2022286847</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>25</v>
@@ -831,7 +831,7 @@
     </row>
     <row r="21">
       <c r="A21" s="3">
-        <v>-1080227996</v>
+        <v>705154845</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>26</v>
@@ -842,7 +842,7 @@
     </row>
     <row r="22">
       <c r="A22" s="3">
-        <v>1006479116</v>
+        <v>2113345403</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>27</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="23">
       <c r="A23" s="3">
-        <v>851451727</v>
+        <v>1418884778</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>28</v>
@@ -864,7 +864,7 @@
     </row>
     <row r="24">
       <c r="A24" s="3">
-        <v>303790042</v>
+        <v>-108916229</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>29</v>
@@ -875,7 +875,7 @@
     </row>
     <row r="25">
       <c r="A25" s="3">
-        <v>779000644</v>
+        <v>1642718431</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>30</v>
@@ -886,7 +886,7 @@
     </row>
     <row r="26">
       <c r="A26" s="3">
-        <v>1205799434</v>
+        <v>-947977773</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>31</v>
@@ -897,7 +897,7 @@
     </row>
     <row r="27">
       <c r="A27" s="3">
-        <v>1993197872</v>
+        <v>1638080128</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>32</v>
@@ -908,7 +908,7 @@
     </row>
     <row r="28">
       <c r="A28" s="3">
-        <v>1753185237</v>
+        <v>-1078447488</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>33</v>
@@ -919,7 +919,7 @@
     </row>
     <row r="29">
       <c r="A29" s="3">
-        <v>1553275941</v>
+        <v>-1720585928</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>34</v>
@@ -930,7 +930,7 @@
     </row>
     <row r="30">
       <c r="A30" s="3">
-        <v>417181438</v>
+        <v>-347142667</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>35</v>
@@ -941,7 +941,7 @@
     </row>
     <row r="31">
       <c r="A31" s="3">
-        <v>-1422368536</v>
+        <v>862041518</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>36</v>
@@ -952,7 +952,7 @@
     </row>
     <row r="32">
       <c r="A32" s="3">
-        <v>-41951286</v>
+        <v>315457823</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>37</v>
@@ -963,7 +963,7 @@
     </row>
     <row r="33">
       <c r="A33" s="3">
-        <v>498502262</v>
+        <v>2109814590</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>38</v>
@@ -974,7 +974,7 @@
     </row>
     <row r="34">
       <c r="A34" s="3">
-        <v>2118059982</v>
+        <v>-362082228</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>39</v>
@@ -985,7 +985,7 @@
     </row>
     <row r="35">
       <c r="A35" s="3">
-        <v>-1278219496</v>
+        <v>661756464</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>40</v>

--- a/Assets/Game/Editor/XLS_Config/AssetDiskMapingFolder.xlsx
+++ b/Assets/Game/Editor/XLS_Config/AssetDiskMapingFolder.xlsx
@@ -644,7 +644,7 @@
     </row>
     <row r="4">
       <c r="A4" s="3">
-        <v>911802018</v>
+        <v>-407640863</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>8</v>
@@ -655,7 +655,7 @@
     </row>
     <row r="5">
       <c r="A5" s="3">
-        <v>-869938189</v>
+        <v>-690277213</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>10</v>
@@ -666,7 +666,7 @@
     </row>
     <row r="6">
       <c r="A6" s="3">
-        <v>-1829266007</v>
+        <v>-1848215035</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>11</v>
@@ -677,7 +677,7 @@
     </row>
     <row r="7">
       <c r="A7" s="3">
-        <v>-1872478931</v>
+        <v>-217314462</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>12</v>
@@ -688,7 +688,7 @@
     </row>
     <row r="8">
       <c r="A8" s="3">
-        <v>-2129202802</v>
+        <v>833541447</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>13</v>
@@ -699,7 +699,7 @@
     </row>
     <row r="9">
       <c r="A9" s="3">
-        <v>-528577065</v>
+        <v>-54790966</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>14</v>
@@ -710,7 +710,7 @@
     </row>
     <row r="10">
       <c r="A10" s="3">
-        <v>-1480342890</v>
+        <v>-564773012</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>15</v>
@@ -721,7 +721,7 @@
     </row>
     <row r="11">
       <c r="A11" s="3">
-        <v>-1403317264</v>
+        <v>-138886169</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>16</v>
@@ -732,7 +732,7 @@
     </row>
     <row r="12">
       <c r="A12" s="3">
-        <v>2045359390</v>
+        <v>-604696863</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>17</v>
@@ -743,7 +743,7 @@
     </row>
     <row r="13">
       <c r="A13" s="3">
-        <v>-1137916888</v>
+        <v>-709248962</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>18</v>
@@ -754,7 +754,7 @@
     </row>
     <row r="14">
       <c r="A14" s="3">
-        <v>-1180586041</v>
+        <v>-1306576225</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>19</v>
@@ -765,7 +765,7 @@
     </row>
     <row r="15">
       <c r="A15" s="3">
-        <v>-508042415</v>
+        <v>2077842219</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>20</v>
@@ -776,7 +776,7 @@
     </row>
     <row r="16">
       <c r="A16" s="3">
-        <v>-487912482</v>
+        <v>-321661972</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>21</v>
@@ -787,7 +787,7 @@
     </row>
     <row r="17">
       <c r="A17" s="3">
-        <v>-810737161</v>
+        <v>1818256112</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>22</v>
@@ -798,7 +798,7 @@
     </row>
     <row r="18">
       <c r="A18" s="3">
-        <v>-2026926156</v>
+        <v>1491052087</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>23</v>
@@ -809,7 +809,7 @@
     </row>
     <row r="19">
       <c r="A19" s="3">
-        <v>-1444934881</v>
+        <v>-1906462643</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>24</v>
@@ -820,7 +820,7 @@
     </row>
     <row r="20">
       <c r="A20" s="3">
-        <v>-2022286847</v>
+        <v>-1842992926</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>25</v>
@@ -831,7 +831,7 @@
     </row>
     <row r="21">
       <c r="A21" s="3">
-        <v>705154845</v>
+        <v>1040554598</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>26</v>
@@ -842,7 +842,7 @@
     </row>
     <row r="22">
       <c r="A22" s="3">
-        <v>2113345403</v>
+        <v>281039821</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>27</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="23">
       <c r="A23" s="3">
-        <v>1418884778</v>
+        <v>1242333133</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>28</v>
@@ -864,7 +864,7 @@
     </row>
     <row r="24">
       <c r="A24" s="3">
-        <v>-108916229</v>
+        <v>-2024372685</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>29</v>
@@ -875,7 +875,7 @@
     </row>
     <row r="25">
       <c r="A25" s="3">
-        <v>1642718431</v>
+        <v>1794619554</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>30</v>
@@ -886,7 +886,7 @@
     </row>
     <row r="26">
       <c r="A26" s="3">
-        <v>-947977773</v>
+        <v>-1043141469</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>31</v>
@@ -897,7 +897,7 @@
     </row>
     <row r="27">
       <c r="A27" s="3">
-        <v>1638080128</v>
+        <v>1555904384</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>32</v>
@@ -908,7 +908,7 @@
     </row>
     <row r="28">
       <c r="A28" s="3">
-        <v>-1078447488</v>
+        <v>-1762047952</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>33</v>
@@ -919,7 +919,7 @@
     </row>
     <row r="29">
       <c r="A29" s="3">
-        <v>-1720585928</v>
+        <v>-1586573444</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>34</v>
@@ -930,7 +930,7 @@
     </row>
     <row r="30">
       <c r="A30" s="3">
-        <v>-347142667</v>
+        <v>-773123988</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>35</v>
@@ -941,7 +941,7 @@
     </row>
     <row r="31">
       <c r="A31" s="3">
-        <v>862041518</v>
+        <v>-981518740</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>36</v>
@@ -952,7 +952,7 @@
     </row>
     <row r="32">
       <c r="A32" s="3">
-        <v>315457823</v>
+        <v>679003640</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>37</v>
@@ -963,7 +963,7 @@
     </row>
     <row r="33">
       <c r="A33" s="3">
-        <v>2109814590</v>
+        <v>-392477947</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>38</v>
@@ -974,7 +974,7 @@
     </row>
     <row r="34">
       <c r="A34" s="3">
-        <v>-362082228</v>
+        <v>764955609</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>39</v>
@@ -985,7 +985,7 @@
     </row>
     <row r="35">
       <c r="A35" s="3">
-        <v>661756464</v>
+        <v>-887612720</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>40</v>
